--- a/data.xlsx
+++ b/data.xlsx
@@ -514,7 +514,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="83.140625" customWidth="1" min="2" max="2"/>
     <col width="9.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
@@ -552,12 +552,10 @@
         </is>
       </c>
       <c r="C2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -2409,8 +2409,12 @@
           <t>កញ្ញា ឡាយ ហ័ង</t>
         </is>
       </c>
-      <c r="C154" s="13" t="n"/>
-      <c r="D154" s="13" t="n"/>
+      <c r="C154" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" s="13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" ht="21" customHeight="1">
       <c r="A155" s="1" t="n">

--- a/data.xlsx
+++ b/data.xlsx
@@ -627,220 +627,220 @@
     <t>ឯក.ឧ. យ៉ែម សុវណ្ណ​ និង លោកជំទាវ</t>
   </si>
   <si>
+    <t>ឯក.ឧ.​ អ៊ុង ថាច​</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. វ៉ា មុនី​ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ហួត ចាន់ដារ៉ាវុធ​ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. កុយ សារិន​ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ឡុង សារុន និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. កូវ សាផាន​ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. អ៊ុន ថាវរី​ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. អ៊ុក សុវណ្ណារិទ្ធ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ហេង សត្ថាឬទិ្ធ​ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. រស់ ថាវ​ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>លោក ឃឹម សុឃឿន​ និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក លី អាហ្វីរីន និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក ប៉ាន រតនះ​ និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក ជា នី​ និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក អ៊ុក ស៊ីមន្ថា និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក យឹម សោភ័ណ្ឌ និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោកជំទាវ ឈឿន និមល និង សា្វមី</t>
+  </si>
+  <si>
+    <t>លោក សុខ សាន្ត និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក ប្រាក់ វុទ្ធី​ និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក កេត រតនា និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក ស៊ឹម សុភាព និង ភរិយា</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ព្រហ្ម រចនា និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ព្រំ ដា និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. អៀម ប៊ុនថេន​ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. អ៊ុក ភិរម្យ​ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ប្រាក់ សុខុម និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ផល សុភាព និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. អាំ ឆុន និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. សោម ផាន្នី និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ពៅ ស៊ីថា និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>លោក សាន សុភ័ក្រ្ត និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក សៀង សុឃាន់ និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក សួន សុផាន និង ភរិយា</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ផុន សុភា និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>លោក សាម លុច និង ភរិយា</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. គឹម វណ្ណសារ៉ុម និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. វណ្ឌី វិបុល និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ហាស កណ្ណារ៉ា និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>លោក អ៊ុំ ម៉ារ័ត្ន និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោកស្រី ប៉ាល់ លក្ខិណា</t>
+  </si>
+  <si>
+    <t>លោក នី​ ពិសិដ្ឋ</t>
+  </si>
+  <si>
+    <t>លោក ប្រាក់ ប៊ុនសុន និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក នូ ហេង​ និង​ ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក គឹម ដារ៉ា និង​ ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក គង់ អេងឈាង និង ភរិយា</t>
+  </si>
+  <si>
+    <t>អ្នកគ្រូ​ អ៊ុក ធារី ព្រមទាំងគ្រួសារ</t>
+  </si>
+  <si>
+    <t>លោក ស៊ុន សាយ័ណ្ណ និង​ ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក សួន ម៉ានិត្យ និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក ជឹម សុខល័ក្ខ និង ភរិយា</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ឡេង ចន្ថន និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. យឹម វុទ្ធី និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.  ខេង ឈុន និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ. ញាណ សុផាត និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.  ឡាំ ដារ៉ារិទ្ធ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.​ ជឿង ឆាលី និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.  សូ ជុំ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.  ធូ វណ្ណះ និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.  តាក់ ប៉េង និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.  គីវ ផល្លី និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>លោក គង់ សាបាន និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក សាន សុភ័ក្រ និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក អ៊ីវ សុគួនពិសិដ្ឋ</t>
+  </si>
+  <si>
+    <t>លោក ជិន សុគា និង ភរិយា</t>
+  </si>
+  <si>
+    <t>លោក យ៉ាត សួស្តី និង ភរិយា</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.  ឡឹក សុខន និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.  ម៉េង​ សាន និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>ឯក.ឧ.  ណុប ប៊ុនថុង និង លោកជំទាវ</t>
+  </si>
+  <si>
+    <t>B. Choun Chamroeun &amp; Family</t>
+  </si>
+  <si>
+    <t>B. Chem Romanea &amp; Family</t>
+  </si>
+  <si>
+    <t>អ៊ុំ​ Pech Kosalmony &amp; Family</t>
+  </si>
+  <si>
+    <t>Lay Mathew &amp; Honey</t>
+  </si>
+  <si>
     <t>ឯក.ឧ. អ៊ុន​ សារ៉ាវុធ​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. វ៉ា មុនី​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ហួត ចាន់ដារ៉ាវុធ​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. កុយ សារិន​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ឡុង សារុន និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. កូវ សាផាន​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. អ៊ុន ថាវរី​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. អ៊ុក សុវណ្ណារិទ្ធ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ហេង សត្ថាឬទិ្ធ​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.​ អ៊ុង ថាច​</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. រស់ ថាវ​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>លោក ឃឹម សុឃឿន​ និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក លី អាហ្វីរីន និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក ប៉ាន រតនះ​ និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក ជា នី​ និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក អ៊ុក ស៊ីមន្ថា និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក យឹម សោភ័ណ្ឌ និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោកជំទាវ ឈឿន និមល និង សា្វមី</t>
-  </si>
-  <si>
-    <t>លោក សុខ សាន្ត និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក ប្រាក់ វុទ្ធី​ និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក កេត រតនា និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក ស៊ឹម សុភាព និង ភរិយា</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ព្រហ្ម រចនា និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ព្រំ ដា និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. អៀម ប៊ុនថេន​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. អ៊ុក ភិរម្យ​ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ប្រាក់ សុខុម និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ផល សុភាព និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. អាំ ឆុន និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. សោម ផាន្នី និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ពៅ ស៊ីថា និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>លោក សាន សុភ័ក្រ្ត និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក សៀង សុឃាន់ និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក សួន សុផាន និង ភរិយា</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ផុន សុភា និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>លោក សាម លុច និង ភរិយា</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. គឹម វណ្ណសារ៉ុម និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. វណ្ឌី វិបុល និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ហាស កណ្ណារ៉ា និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>លោក អ៊ុំ ម៉ារ័ត្ន និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោកស្រី ប៉ាល់ លក្ខិណា</t>
-  </si>
-  <si>
-    <t>លោក នី​ ពិសិដ្ឋ</t>
-  </si>
-  <si>
-    <t>លោក ប្រាក់ ប៊ុនសុន និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក នូ ហេង​ និង​ ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក គឹម ដារ៉ា និង​ ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក គង់ អេងឈាង និង ភរិយា</t>
-  </si>
-  <si>
-    <t>អ្នកគ្រូ​ អ៊ុក ធារី ព្រមទាំងគ្រួសារ</t>
-  </si>
-  <si>
-    <t>លោក ស៊ុន សាយ័ណ្ណ និង​ ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក សួន ម៉ានិត្យ និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក ជឹម សុខល័ក្ខ និង ភរិយា</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ឡេង ចន្ថន និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. យឹម វុទ្ធី និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.  ខេង ឈុន និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ. ញាណ សុផាត និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.  ឡាំ ដារ៉ារិទ្ធ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.​ ជឿង ឆាលី និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.  សូ ជុំ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.  ធូ វណ្ណះ និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.  តាក់ ប៉េង និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.  គីវ ផល្លី និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>លោក គង់ សាបាន និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក សាន សុភ័ក្រ និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក អ៊ីវ សុគួនពិសិដ្ឋ</t>
-  </si>
-  <si>
-    <t>លោក ជិន សុគា និង ភរិយា</t>
-  </si>
-  <si>
-    <t>លោក យ៉ាត សួស្តី និង ភរិយា</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.  ឡឹក សុខន និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.  ម៉េង​ សាន និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>ឯក.ឧ.  ណុប ប៊ុនថុង និង លោកជំទាវ</t>
-  </si>
-  <si>
-    <t>B. Choun Chamroeun &amp; Family</t>
-  </si>
-  <si>
-    <t>B. Chem Romanea &amp; Family</t>
-  </si>
-  <si>
-    <t>អ៊ុំ​ Pech Kosalmony &amp; Family</t>
-  </si>
-  <si>
-    <t>Lay Mathew &amp; Honey</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="000"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -951,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F367" sqref="F367"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,10 +1332,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4073,13 +4073,13 @@
         <v>208</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="C200" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.75">
@@ -4090,10 +4090,10 @@
         <v>203</v>
       </c>
       <c r="C201" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4199,7 +4199,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C209" s="8">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C210" s="8">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C211" s="8">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C212" s="8">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C213" s="8">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C214" s="8">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C215" s="8">
         <v>0</v>
@@ -4297,7 +4297,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C216" s="8">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C217" s="8">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C218" s="8">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C219" s="8">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C220" s="8">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C221" s="8">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C222" s="8">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C223" s="8">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C224" s="8">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C225" s="8">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C226" s="8">
         <v>0</v>
@@ -4451,7 +4451,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C227" s="8">
         <v>0</v>
@@ -4465,7 +4465,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C228" s="8">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C229" s="8">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C230" s="8">
         <v>0</v>
@@ -4507,7 +4507,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C231" s="8">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C232" s="8">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" s="8">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C234" s="8">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C235" s="8">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C236" s="8">
         <v>0</v>
@@ -4591,7 +4591,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C237" s="8">
         <v>0</v>
@@ -4605,7 +4605,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C238" s="8">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C239" s="8">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C240" s="8">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C241" s="8">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C242" s="8">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C243" s="8">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C244" s="8">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C245" s="8">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C246" s="8">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C247" s="8">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C248" s="8">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C249" s="8">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C250" s="8">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C251" s="8">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C252" s="8">
         <v>0</v>
@@ -4815,7 +4815,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C253" s="8">
         <v>0</v>
@@ -4829,7 +4829,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C254" s="8">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C255" s="8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C256" s="8">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C257" s="8">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C258" s="8">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C259" s="8">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C260" s="8">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C261" s="8">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C262" s="8">
         <v>0</v>
@@ -4955,7 +4955,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C263" s="8">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C264" s="8">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C265" s="8">
         <v>0</v>
@@ -4997,7 +4997,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C266" s="8">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C267" s="8">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C268" s="8">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C269" s="8">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C270" s="8">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C271" s="8">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="8">
         <v>0</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="8">
         <v>0</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="8">
         <v>0</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="8">
         <v>0</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="8">
         <v>0</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="8">
         <v>0</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="8">
         <v>0</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="8">
         <v>0</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="8">
         <v>0</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="8">
         <v>0</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="8">
         <v>0</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="8">
         <v>0</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="8">
         <v>0</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="8">
         <v>0</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="8">
         <v>0</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="8">
         <v>0</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="8">
         <v>0</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="8">
         <v>0</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="8">
         <v>0</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="8">
         <v>0</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="8">
         <v>0</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="8">
         <v>0</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="8">
         <v>0</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="8">
         <v>0</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="8">
         <v>0</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="8">
         <v>0</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="8">
         <v>0</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="8">
         <v>0</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="8">
         <v>0</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="8">
         <v>0</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="8">
         <v>0</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="8">
         <v>0</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="8">
         <v>0</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="8">
         <v>0</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="8">
         <v>0</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="8">
         <v>0</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="8">
         <v>0</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="8">
         <v>0</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="8">
         <v>0</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="8">
         <v>0</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="8">
         <v>0</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="8">
         <v>0</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="8">
         <v>0</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="8">
         <v>0</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="8">
         <v>0</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="8">
         <v>0</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="8">
         <v>0</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="8">
         <v>0</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="8">
         <v>0</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="8">
         <v>0</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="8">
         <v>0</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="8">
         <v>0</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="8">
         <v>0</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="8">
         <v>0</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="8">
         <v>0</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="8">
         <v>0</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="8">
         <v>0</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="8">
         <v>0</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="8">
         <v>0</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="8">
         <v>0</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="8">
         <v>0</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="8">
         <v>0</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="8">
         <v>0</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="8">
         <v>0</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="8">
         <v>0</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="8">
         <v>0</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="8">
         <v>0</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="8">
         <v>0</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="8">
         <v>0</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="8">
         <v>0</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="8">
         <v>0</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="8">
         <v>0</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="8">
         <v>0</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="8">
         <v>0</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="8">
         <v>0</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="8">
         <v>0</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="8">
         <v>0</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="8">
         <v>0</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="8">
         <v>0</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="8">
         <v>0</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="8">
         <v>0</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="8">
         <v>0</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="8">
         <v>0</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="8">
         <v>0</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="8">
         <v>0</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="8">
         <v>0</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="8">
         <v>0</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="8">
         <v>0</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="8">
         <v>0</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="8">
         <v>0</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="8">
         <v>0</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="8">
         <v>0</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="8">
         <v>0</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="8">
         <v>0</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="8">
         <v>0</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="8">
         <v>0</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="8">
         <v>0</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="8">
         <v>0</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="8">
         <v>0</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="8">
         <v>0</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="8">
         <v>0</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="8">
         <v>0</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="8">
         <v>0</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="8">
         <v>0</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="8">
         <v>0</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="8">
         <v>0</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C378" s="8">
         <v>0</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C379" s="8">
         <v>0</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C380" s="8">
         <v>0</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C381" s="8">
         <v>0</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C382" s="8">
         <v>0</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C383" s="8">
         <v>0</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C384" s="8">
         <v>0</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C385" s="8">
         <v>0</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -505,7 +505,7 @@
       <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="83.109375" customWidth="1" min="2" max="2"/>
     <col width="14.109375" customWidth="1" min="3" max="3"/>
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="C200" s="8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D200" s="8" t="n">
         <v>2</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -501,11 +501,11 @@
   </sheetPr>
   <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="83.109375" customWidth="1" min="2" max="2"/>
     <col width="14.109375" customWidth="1" min="3" max="3"/>
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="C4" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="C200" s="8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D200" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" ht="21" customHeight="1">
@@ -3728,10 +3728,10 @@
         </is>
       </c>
       <c r="C201" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" ht="19.5" customHeight="1">
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="C209" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" ht="21" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +121,10 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,21 +503,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D385"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="83.109375" customWidth="1" min="2" max="2"/>
-    <col width="14.109375" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="12" min="1" max="1"/>
+    <col width="83.140625" customWidth="1" min="2" max="2"/>
+    <col width="14.140625" customWidth="1" style="10" min="3" max="3"/>
+    <col width="15" customWidth="1" style="10" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
@@ -523,12 +528,12 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Riel</t>
         </is>
@@ -544,7 +549,7 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>0</v>
@@ -563,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -579,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
@@ -592,7 +597,7 @@
         </is>
       </c>
       <c r="C5" s="8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>0</v>
@@ -4855,918 +4860,134 @@
       </c>
     </row>
     <row r="272" ht="18" customHeight="1">
-      <c r="C272" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D272" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" ht="18" customHeight="1">
-      <c r="C273" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D273" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" ht="18" customHeight="1">
-      <c r="C274" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D274" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" ht="18" customHeight="1">
-      <c r="C275" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D275" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" ht="18" customHeight="1">
-      <c r="C276" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D276" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" ht="18" customHeight="1">
-      <c r="C277" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D277" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" ht="18" customHeight="1">
-      <c r="C278" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D278" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" ht="18" customHeight="1">
-      <c r="C279" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D279" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" ht="18" customHeight="1">
-      <c r="C280" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D280" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" ht="18" customHeight="1">
-      <c r="C281" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D281" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" ht="18" customHeight="1">
-      <c r="C282" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D282" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" ht="18" customHeight="1">
-      <c r="C283" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D283" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" ht="18" customHeight="1">
-      <c r="C284" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D284" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" ht="18" customHeight="1">
-      <c r="C285" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D285" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" ht="18" customHeight="1">
-      <c r="C286" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D286" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" ht="18" customHeight="1">
-      <c r="C287" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D287" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" ht="18" customHeight="1">
-      <c r="C288" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D288" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" ht="18" customHeight="1">
-      <c r="C289" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D289" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" ht="18" customHeight="1">
-      <c r="C290" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D290" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" ht="18" customHeight="1">
-      <c r="C291" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D291" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" ht="18" customHeight="1">
-      <c r="C292" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D292" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" ht="18" customHeight="1">
-      <c r="C293" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D293" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" ht="18" customHeight="1">
-      <c r="C294" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D294" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" ht="18" customHeight="1">
-      <c r="C295" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D295" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" ht="18" customHeight="1">
-      <c r="C296" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D296" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" ht="18" customHeight="1">
-      <c r="C297" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D297" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" ht="18" customHeight="1">
-      <c r="C298" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D298" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" ht="18" customHeight="1">
-      <c r="C299" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D299" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" ht="18" customHeight="1">
-      <c r="C300" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D300" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" ht="18" customHeight="1">
-      <c r="C301" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D301" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" ht="18" customHeight="1">
-      <c r="C302" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D302" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" ht="18" customHeight="1">
-      <c r="C303" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D303" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" ht="18" customHeight="1">
-      <c r="C304" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D304" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" ht="18" customHeight="1">
-      <c r="C305" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D305" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" ht="18" customHeight="1">
-      <c r="C306" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D306" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" ht="18" customHeight="1">
-      <c r="C307" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D307" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" ht="18" customHeight="1">
-      <c r="C308" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D308" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" ht="18" customHeight="1">
-      <c r="C309" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D309" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" ht="18" customHeight="1">
-      <c r="C310" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D310" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" ht="18" customHeight="1">
-      <c r="C311" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D311" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" ht="18" customHeight="1">
-      <c r="C312" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D312" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" ht="18" customHeight="1">
-      <c r="C313" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D313" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" ht="18" customHeight="1">
-      <c r="C314" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D314" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" ht="18" customHeight="1">
-      <c r="C315" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D315" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" ht="18" customHeight="1">
-      <c r="C316" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D316" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" ht="18" customHeight="1">
-      <c r="C317" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D317" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" ht="18" customHeight="1">
-      <c r="C318" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D318" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" ht="18" customHeight="1">
-      <c r="C319" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D319" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" ht="18" customHeight="1">
-      <c r="C320" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D320" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" ht="18" customHeight="1">
-      <c r="C321" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D321" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" ht="18" customHeight="1">
-      <c r="C322" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D322" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" ht="18" customHeight="1">
-      <c r="C323" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D323" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" ht="18" customHeight="1">
-      <c r="C324" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D324" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" ht="18" customHeight="1">
-      <c r="C325" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D325" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" ht="18" customHeight="1">
-      <c r="C326" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D326" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" ht="18" customHeight="1">
-      <c r="C327" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D327" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" ht="18" customHeight="1">
-      <c r="C328" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D328" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" ht="18" customHeight="1">
-      <c r="C329" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D329" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" ht="18" customHeight="1">
-      <c r="C330" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D330" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" ht="18" customHeight="1">
-      <c r="C331" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D331" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" ht="18" customHeight="1">
-      <c r="C332" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D332" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" ht="18" customHeight="1">
-      <c r="C333" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D333" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" ht="18" customHeight="1">
-      <c r="C334" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D334" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" ht="18" customHeight="1">
-      <c r="C335" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D335" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" ht="18" customHeight="1">
-      <c r="C336" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D336" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" ht="18" customHeight="1">
-      <c r="C337" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D337" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" ht="18" customHeight="1">
-      <c r="C338" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D338" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" ht="18" customHeight="1">
-      <c r="C339" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D339" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" ht="18" customHeight="1">
-      <c r="C340" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D340" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" ht="18" customHeight="1">
-      <c r="C341" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D341" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" ht="18" customHeight="1">
-      <c r="C342" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D342" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" ht="18" customHeight="1">
-      <c r="C343" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D343" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" ht="18" customHeight="1">
-      <c r="C344" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D344" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" ht="18" customHeight="1">
-      <c r="C345" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D345" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" ht="18" customHeight="1">
-      <c r="C346" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D346" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" ht="18" customHeight="1">
-      <c r="C347" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D347" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" ht="18" customHeight="1">
-      <c r="C348" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D348" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" ht="18" customHeight="1">
-      <c r="C349" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D349" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" ht="18" customHeight="1">
-      <c r="C350" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D350" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" ht="18" customHeight="1">
-      <c r="C351" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D351" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" ht="18" customHeight="1">
-      <c r="C352" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D352" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" ht="18" customHeight="1">
-      <c r="C353" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D353" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" ht="18" customHeight="1">
-      <c r="C354" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D354" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" ht="18" customHeight="1">
-      <c r="C355" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D355" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" ht="18" customHeight="1">
-      <c r="C356" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D356" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" ht="18" customHeight="1">
-      <c r="C357" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D357" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" ht="18" customHeight="1">
-      <c r="C358" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D358" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" ht="18" customHeight="1">
-      <c r="C359" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D359" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" ht="18" customHeight="1">
-      <c r="C360" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D360" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" ht="18" customHeight="1">
-      <c r="C361" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D361" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" ht="18" customHeight="1">
-      <c r="C362" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D362" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" ht="18" customHeight="1">
-      <c r="C363" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D363" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" ht="18" customHeight="1">
-      <c r="C364" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D364" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" ht="18" customHeight="1">
-      <c r="C365" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D365" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" ht="18" customHeight="1">
-      <c r="C366" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D366" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" ht="18" customHeight="1">
-      <c r="C367" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D367" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" ht="18" customHeight="1">
-      <c r="C368" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D368" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" ht="18" customHeight="1">
-      <c r="C369" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D369" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" ht="18" customHeight="1">
-      <c r="C370" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D370" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" ht="18" customHeight="1">
-      <c r="C371" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D371" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" ht="18" customHeight="1">
-      <c r="C372" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D372" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" ht="18" customHeight="1">
-      <c r="C373" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D373" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" ht="18" customHeight="1">
-      <c r="C374" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D374" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" ht="18" customHeight="1">
-      <c r="C375" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D375" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" ht="18" customHeight="1">
-      <c r="C376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D376" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" ht="18" customHeight="1">
-      <c r="C377" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D377" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" ht="18" customHeight="1">
-      <c r="C378" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D378" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" ht="18" customHeight="1">
-      <c r="C379" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D379" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" ht="18" customHeight="1">
-      <c r="C380" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D380" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" ht="18" customHeight="1">
-      <c r="C381" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D381" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" ht="18" customHeight="1">
-      <c r="C382" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D382" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" ht="18" customHeight="1">
-      <c r="C383" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D383" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" ht="18" customHeight="1">
-      <c r="C384" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D384" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" ht="18" customHeight="1">
-      <c r="C385" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D385" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" ht="18" customHeight="1"/>
+    <row r="274" ht="18" customHeight="1"/>
+    <row r="275" ht="18" customHeight="1"/>
+    <row r="276" ht="18" customHeight="1"/>
+    <row r="277" ht="18" customHeight="1"/>
+    <row r="278" ht="18" customHeight="1"/>
+    <row r="279" ht="18" customHeight="1"/>
+    <row r="280" ht="18" customHeight="1"/>
+    <row r="281" ht="18" customHeight="1"/>
+    <row r="282" ht="18" customHeight="1"/>
+    <row r="283" ht="18" customHeight="1"/>
+    <row r="284" ht="18" customHeight="1"/>
+    <row r="285" ht="18" customHeight="1"/>
+    <row r="286" ht="18" customHeight="1"/>
+    <row r="287" ht="18" customHeight="1"/>
+    <row r="288" ht="18" customHeight="1"/>
+    <row r="289" ht="18" customHeight="1"/>
+    <row r="290" ht="18" customHeight="1"/>
+    <row r="291" ht="18" customHeight="1"/>
+    <row r="292" ht="18" customHeight="1"/>
+    <row r="293" ht="18" customHeight="1"/>
+    <row r="294" ht="18" customHeight="1"/>
+    <row r="295" ht="18" customHeight="1"/>
+    <row r="296" ht="18" customHeight="1"/>
+    <row r="297" ht="18" customHeight="1"/>
+    <row r="298" ht="18" customHeight="1"/>
+    <row r="299" ht="18" customHeight="1"/>
+    <row r="300" ht="18" customHeight="1"/>
+    <row r="301" ht="18" customHeight="1"/>
+    <row r="302" ht="18" customHeight="1"/>
+    <row r="303" ht="18" customHeight="1"/>
+    <row r="304" ht="18" customHeight="1"/>
+    <row r="305" ht="18" customHeight="1"/>
+    <row r="306" ht="18" customHeight="1"/>
+    <row r="307" ht="18" customHeight="1"/>
+    <row r="308" ht="18" customHeight="1"/>
+    <row r="309" ht="18" customHeight="1"/>
+    <row r="310" ht="18" customHeight="1"/>
+    <row r="311" ht="18" customHeight="1"/>
+    <row r="312" ht="18" customHeight="1"/>
+    <row r="313" ht="18" customHeight="1"/>
+    <row r="314" ht="18" customHeight="1"/>
+    <row r="315" ht="18" customHeight="1"/>
+    <row r="316" ht="18" customHeight="1"/>
+    <row r="317" ht="18" customHeight="1"/>
+    <row r="318" ht="18" customHeight="1"/>
+    <row r="319" ht="18" customHeight="1"/>
+    <row r="320" ht="18" customHeight="1"/>
+    <row r="321" ht="18" customHeight="1"/>
+    <row r="322" ht="18" customHeight="1"/>
+    <row r="323" ht="18" customHeight="1"/>
+    <row r="324" ht="18" customHeight="1"/>
+    <row r="325" ht="18" customHeight="1"/>
+    <row r="326" ht="18" customHeight="1"/>
+    <row r="327" ht="18" customHeight="1"/>
+    <row r="328" ht="18" customHeight="1"/>
+    <row r="329" ht="18" customHeight="1"/>
+    <row r="330" ht="18" customHeight="1"/>
+    <row r="331" ht="18" customHeight="1"/>
+    <row r="332" ht="18" customHeight="1"/>
+    <row r="333" ht="18" customHeight="1"/>
+    <row r="334" ht="18" customHeight="1"/>
+    <row r="335" ht="18" customHeight="1"/>
+    <row r="336" ht="18" customHeight="1"/>
+    <row r="337" ht="18" customHeight="1"/>
+    <row r="338" ht="18" customHeight="1"/>
+    <row r="339" ht="18" customHeight="1"/>
+    <row r="340" ht="18" customHeight="1"/>
+    <row r="341" ht="18" customHeight="1"/>
+    <row r="342" ht="18" customHeight="1"/>
+    <row r="343" ht="18" customHeight="1"/>
+    <row r="344" ht="18" customHeight="1"/>
+    <row r="345" ht="18" customHeight="1"/>
+    <row r="346" ht="18" customHeight="1"/>
+    <row r="347" ht="18" customHeight="1"/>
+    <row r="348" ht="18" customHeight="1"/>
+    <row r="349" ht="18" customHeight="1"/>
+    <row r="350" ht="18" customHeight="1"/>
+    <row r="351" ht="18" customHeight="1"/>
+    <row r="352" ht="18" customHeight="1"/>
+    <row r="353" ht="18" customHeight="1"/>
+    <row r="354" ht="18" customHeight="1"/>
+    <row r="355" ht="18" customHeight="1"/>
+    <row r="356" ht="18" customHeight="1"/>
+    <row r="357" ht="18" customHeight="1"/>
+    <row r="358" ht="18" customHeight="1"/>
+    <row r="359" ht="18" customHeight="1"/>
+    <row r="360" ht="18" customHeight="1"/>
+    <row r="361" ht="18" customHeight="1"/>
+    <row r="362" ht="18" customHeight="1"/>
+    <row r="363" ht="18" customHeight="1"/>
+    <row r="364" ht="18" customHeight="1"/>
+    <row r="365" ht="18" customHeight="1"/>
+    <row r="366" ht="18" customHeight="1"/>
+    <row r="367" ht="18" customHeight="1"/>
+    <row r="368" ht="18" customHeight="1"/>
+    <row r="369" ht="18" customHeight="1"/>
+    <row r="370" ht="18" customHeight="1"/>
+    <row r="371" ht="18" customHeight="1"/>
+    <row r="372" ht="18" customHeight="1"/>
+    <row r="373" ht="18" customHeight="1"/>
+    <row r="374" ht="18" customHeight="1"/>
+    <row r="375" ht="18" customHeight="1"/>
+    <row r="376" ht="18" customHeight="1"/>
+    <row r="377" ht="18" customHeight="1"/>
+    <row r="378" ht="18" customHeight="1"/>
+    <row r="379" ht="18" customHeight="1"/>
+    <row r="380" ht="18" customHeight="1"/>
+    <row r="381" ht="18" customHeight="1"/>
+    <row r="382" ht="18" customHeight="1"/>
+    <row r="383" ht="18" customHeight="1"/>
+    <row r="384" ht="18" customHeight="1"/>
+    <row r="385" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
     <numFmt numFmtId="164" formatCode="000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,40 +31,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="14"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
-      <sz val="14"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Khmer OS Muol Light"/>
-      <color theme="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
       <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Khmer OS Muol Light"/>
-      <color theme="1"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,33 +77,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,4300 +493,4300 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="I265" sqref="I265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="12" min="1" max="1"/>
-    <col width="83.140625" customWidth="1" min="2" max="2"/>
-    <col width="14.140625" customWidth="1" style="10" min="3" max="3"/>
-    <col width="15" customWidth="1" style="10" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="50.85546875" customWidth="1" min="2" max="2"/>
+    <col width="14.140625" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.85546875" customWidth="1" style="5" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Riel</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Nop Robert &amp; Wife</t>
         </is>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Phal Sovannat &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Yeang Sethsamprathna &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Phal Sovannat &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Yeang Sethsamprathna &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Seng Vuthy &amp; Honey</t>
         </is>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Pring Khun &amp; Tee</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>GM Yong Sok Choi &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Master Hem Samnang &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Master Kong Sakkheda &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Master Chhrin Sothea </t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Master Cheat Khemera &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Master So Naro &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Master Mao Sophal &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Yean Seng Hong &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Sorm Sokunthea &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>B. Sok Chenda</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>B. Ly Dary Neth &amp; Family</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>B. Ly Dary Nith &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Nheth Vannary &amp; Husband</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Put Bunthoeun &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Pheap Sophanna &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Loeung Sovisal &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>B. Chay Sopheap &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Va Mithona &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Sim Panha &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Houn Rithy Sey &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Merly Laperme</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Chan Ratana TKD &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Master Kim Kyoung Sun &amp; Husband</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>B. Kao Phiranya</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>B. Touch Rim &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>B. Prak Leakhena</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Best Friend Kang Minae &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Sim Rachna &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>B. Kong Veasna &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>B. Im Vuthai &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>B. Sokny SHV &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>B. Phim Rasmey &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>GM Kim SHV &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Sen Sokmom &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Chan Ratanak &amp; Honey</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chan Ratana PSY &amp; Honey </t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>B. Pum Vannak &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>B. Sok Ty &amp; Wife</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Teacher Soun Sang &amp; Family</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="D5" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>Pring Khun &amp; Tee</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>GM Yong Sok Choi &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>Master Hem Samnang &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>Master Kong Sakkheda &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Master Chhrin Sothea </t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>Master Cheat Khemera &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>Master So Naro &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>Master Mao Sophal &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>Yean Seng Hong &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>Sorm Sokunthea &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>B. Sok Chenda</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>B. Ly Dary Neth &amp; Family</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>B. Ly Dary Nith &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>Nheth Vannary &amp; Husband</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>Put Bunthoeun &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>Pheap Sophanna &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>Loeung Sovisal &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>B. Chay Sopheap &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>Va Mithona &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>Sim Panha &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
-        <is>
-          <t>Houn Rithy Sey &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>Merly Laperme</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>Chan Ratana TKD &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
-        <is>
-          <t>Master Kim Kyoung Sun &amp; Husband</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>B. Kao Phiranya</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="inlineStr">
-        <is>
-          <t>B. Touch Rim &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="inlineStr">
-        <is>
-          <t>B. Prak Leakhena</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="inlineStr">
-        <is>
-          <t>Best Friend Kang Minae &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
-        <is>
-          <t>Sim Rachna &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="inlineStr">
-        <is>
-          <t>B. Kong Veasna &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="inlineStr">
-        <is>
-          <t>B. Im Vuthai &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="inlineStr">
-        <is>
-          <t>B. Sokny SHV &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="inlineStr">
-        <is>
-          <t>B. Phim Rasmey &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C38" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="inlineStr">
-        <is>
-          <t>GM Kim SHV &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="inlineStr">
-        <is>
-          <t>Sen Sokmom &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="inlineStr">
-        <is>
-          <t>Chan Ratanak &amp; Honey</t>
-        </is>
-      </c>
-      <c r="C41" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chan Ratana PSY &amp; Honey </t>
-        </is>
-      </c>
-      <c r="C42" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
-        <is>
-          <t>B. Pum Vannak &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
-        <is>
-          <t>B. Sok Ty &amp; Wife</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
-        <is>
-          <t>Teacher Soun Sang &amp; Family</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Mr. Lim Mukyung (LJ Cargo)</t>
         </is>
       </c>
-      <c r="C46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="8" t="n">
+      <c r="C46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>Nem Borei &amp; Honey</t>
         </is>
       </c>
-      <c r="C47" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="8" t="n">
+      <c r="C47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="8" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>B. Pal Chivorn &amp; Honey</t>
         </is>
       </c>
-      <c r="C48" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="8" t="n">
+      <c r="C48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>B. Kao Makara &amp; Wife</t>
         </is>
       </c>
-      <c r="C49" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="8" t="n">
+      <c r="C49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>B. Buonhing Sothya &amp; Wife</t>
         </is>
       </c>
-      <c r="C50" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="8" t="n">
+      <c r="C50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Teacher Reth Thearom &amp; Wife</t>
         </is>
       </c>
-      <c r="C51" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="8" t="n">
+      <c r="C51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Teacher Chan Mithona</t>
         </is>
       </c>
-      <c r="C52" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="8" t="n">
+      <c r="C52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Choun Srey Mom &amp; Husband</t>
         </is>
       </c>
-      <c r="C53" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="8" t="n">
+      <c r="C53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>B Sorn Sideth &amp; Family</t>
         </is>
       </c>
-      <c r="C54" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="8" t="n">
+      <c r="C54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>B Seng Bunvirak &amp; Family</t>
         </is>
       </c>
-      <c r="C55" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="8" t="n">
+      <c r="C55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>Mak Bunlinthanou &amp; Honey</t>
         </is>
       </c>
-      <c r="C56" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="8" t="n">
+      <c r="C56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Mak Bunlintharo &amp; Honey</t>
         </is>
       </c>
-      <c r="C57" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="8" t="n">
+      <c r="C57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" ht="18.75" customHeight="1">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>B Vithurak &amp; Family</t>
         </is>
       </c>
-      <c r="C58" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="8" t="n">
+      <c r="C58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" ht="18.75" customHeight="1">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>A. Pham Ngoc Hung &amp; Wife</t>
         </is>
       </c>
-      <c r="C59" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="8" t="n">
+      <c r="C59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" ht="18.75" customHeight="1">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Chan Kileng &amp; Husband</t>
         </is>
       </c>
-      <c r="C60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="8" t="n">
+      <c r="C60" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" ht="18.75" customHeight="1">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Chhai Nalin &amp; Honey</t>
         </is>
       </c>
-      <c r="C61" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" s="8" t="n">
+      <c r="C61" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" ht="18.75" customHeight="1">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Sreng Arunrachana &amp; Honey</t>
         </is>
       </c>
-      <c r="C62" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" s="8" t="n">
+      <c r="C62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" ht="18.75" customHeight="1">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ly Chan Ratana </t>
         </is>
       </c>
-      <c r="C63" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" s="8" t="n">
+      <c r="C63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" ht="18.75" customHeight="1">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Seng Ly Heng &amp; Honey</t>
         </is>
       </c>
-      <c r="C64" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" s="8" t="n">
+      <c r="C64" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" ht="18.75" customHeight="1">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>Sim Thona &amp; Honey</t>
         </is>
       </c>
-      <c r="C65" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" s="8" t="n">
+      <c r="C65" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" ht="18.75" customHeight="1">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="8" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Hong Marady &amp; Wife</t>
         </is>
       </c>
-      <c r="C66" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" s="8" t="n">
+      <c r="C66" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" ht="18.75" customHeight="1">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>Long Siv Mey &amp; Fiance</t>
         </is>
       </c>
-      <c r="C67" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" s="8" t="n">
+      <c r="C67" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" ht="18.75" customHeight="1">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="8" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Ho Solita &amp; Husband</t>
         </is>
       </c>
-      <c r="C68" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" s="8" t="n">
+      <c r="C68" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" ht="18.75" customHeight="1">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Sok Leakhena &amp; Honey</t>
         </is>
       </c>
-      <c r="C69" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" s="8" t="n">
+      <c r="C69" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" ht="18.75" customHeight="1">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="8" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chet Leakhena </t>
         </is>
       </c>
-      <c r="C70" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" s="8" t="n">
+      <c r="C70" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" ht="18.75" customHeight="1">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="8" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Som Somnea &amp; Honey</t>
         </is>
       </c>
-      <c r="C71" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" s="8" t="n">
+      <c r="C71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" ht="18.75" customHeight="1">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="8" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>Noun Kosal &amp; Wife</t>
         </is>
       </c>
-      <c r="C72" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" s="8" t="n">
+      <c r="C72" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" ht="18.75" customHeight="1">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>Sina Chomonysamphos</t>
         </is>
       </c>
-      <c r="C73" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="8" t="n">
+      <c r="C73" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" ht="18.75" customHeight="1">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Seat Sreymov &amp; Husband</t>
         </is>
       </c>
-      <c r="C74" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" s="8" t="n">
+      <c r="C74" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" ht="18.75" customHeight="1">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Ly Guech Hong &amp; Husband</t>
         </is>
       </c>
-      <c r="C75" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" s="8" t="n">
+      <c r="C75" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" ht="18.75" customHeight="1">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Yem Lida &amp; Wife</t>
         </is>
       </c>
-      <c r="C76" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" s="8" t="n">
+      <c r="C76" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" ht="18.75" customHeight="1">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Chok Soklim &amp; Husband</t>
         </is>
       </c>
-      <c r="C77" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" s="8" t="n">
+      <c r="C77" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="8" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Chhab Longdy &amp; Wife</t>
         </is>
       </c>
-      <c r="C78" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" s="8" t="n">
+      <c r="C78" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" ht="18.75" customHeight="1">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="8" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Soun Soknat &amp; Wife</t>
         </is>
       </c>
-      <c r="C79" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" s="8" t="n">
+      <c r="C79" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" ht="18.75" customHeight="1">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="8" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Sok Phalla &amp; Honey</t>
         </is>
       </c>
-      <c r="C80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" s="8" t="n">
+      <c r="C80" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" ht="18.75" customHeight="1">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Lim Ching Houn &amp; Husband</t>
         </is>
       </c>
-      <c r="C81" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" s="8" t="n">
+      <c r="C81" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" ht="18.75" customHeight="1">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="8" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Chim Vanlida &amp; Honey</t>
         </is>
       </c>
-      <c r="C82" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="8" t="n">
+      <c r="C82" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" ht="18.75" customHeight="1">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Mom Vichet &amp; Honey</t>
         </is>
       </c>
-      <c r="C83" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" s="8" t="n">
+      <c r="C83" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" ht="18.75" customHeight="1">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="8" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Bang Alex &amp; Honey to be</t>
         </is>
       </c>
-      <c r="C84" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" s="8" t="n">
+      <c r="C84" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" ht="18.75" customHeight="1">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="8" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Chav Siv Phan &amp; Honey</t>
         </is>
       </c>
-      <c r="C85" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" s="8" t="n">
+      <c r="C85" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" ht="18.75" customHeight="1">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Chin Khema &amp; Honey</t>
         </is>
       </c>
-      <c r="C86" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" s="8" t="n">
+      <c r="C86" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" ht="18.75" customHeight="1">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="8" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>Ratana &amp; Husband</t>
         </is>
       </c>
-      <c r="C87" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" s="8" t="n">
+      <c r="C87" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Phat Sophea &amp; Husband</t>
         </is>
       </c>
-      <c r="C88" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" s="8" t="n">
+      <c r="C88" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" ht="18.75" customHeight="1">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="8" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Som Thara (TKD) &amp; Honey </t>
         </is>
       </c>
-      <c r="C89" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" s="8" t="n">
+      <c r="C89" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" ht="18.75" customHeight="1">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="8" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Chhun Seiha &amp; Wife</t>
         </is>
       </c>
-      <c r="C90" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" s="8" t="n">
+      <c r="C90" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" ht="18.75" customHeight="1">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sambath Rattanakoudom &amp; Wife </t>
         </is>
       </c>
-      <c r="C91" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" s="8" t="n">
+      <c r="C91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" ht="18.75" customHeight="1">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="8" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Chhun Soklong (TKD) &amp; Honey</t>
         </is>
       </c>
-      <c r="C92" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" s="8" t="n">
+      <c r="C92" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" ht="18.75" customHeight="1">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="8" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Sok Heang &amp; Wife</t>
         </is>
       </c>
-      <c r="C93" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" s="8" t="n">
+      <c r="C93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" ht="18.75" customHeight="1">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="8" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>B. Vong Pheakyny &amp; Honey</t>
         </is>
       </c>
-      <c r="C94" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" s="8" t="n">
+      <c r="C94" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" ht="18.75" customHeight="1">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="8" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>B. Kim Chantha &amp; Wife</t>
         </is>
       </c>
-      <c r="C95" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" s="8" t="n">
+      <c r="C95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" ht="18.75" customHeight="1">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="8" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>B. Choun Thearith &amp; Honey</t>
         </is>
       </c>
-      <c r="C96" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" s="8" t="n">
+      <c r="C96" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" ht="18.75" customHeight="1">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="8" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>Master Yoojin Lee &amp; Wife</t>
         </is>
       </c>
-      <c r="C97" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" s="8" t="n">
+      <c r="C97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" ht="18.75" customHeight="1">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="8" t="n">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>Master Chea Sarath &amp; Wife</t>
         </is>
       </c>
-      <c r="C98" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" s="8" t="n">
+      <c r="C98" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" ht="18.75" customHeight="1">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="8" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Master Doeun Sokchea &amp; Wife</t>
         </is>
       </c>
-      <c r="C99" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" s="8" t="n">
+      <c r="C99" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" ht="18.75" customHeight="1">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="8" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Master Nuth Sokly &amp; Wife</t>
         </is>
       </c>
-      <c r="C100" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="8" t="n">
+      <c r="C100" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" ht="18.75" customHeight="1">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Master Vichet (Rattanakiri)</t>
         </is>
       </c>
-      <c r="C101" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" s="8" t="n">
+      <c r="C101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" ht="18.75" customHeight="1">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Ouk Vannara &amp; Honey</t>
         </is>
       </c>
-      <c r="C102" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" s="8" t="n">
+      <c r="C102" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" ht="18.75" customHeight="1">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="8" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>B. Som Syneat &amp; Husband</t>
         </is>
       </c>
-      <c r="C103" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" s="8" t="n">
+      <c r="C103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" ht="18.75" customHeight="1">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="8" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>Rin Bunhout &amp; Wife</t>
         </is>
       </c>
-      <c r="C104" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" s="8" t="n">
+      <c r="C104" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" ht="18.75" customHeight="1">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="8" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>Mr. Tran Van Sang VN</t>
         </is>
       </c>
-      <c r="C105" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" s="8" t="n">
+      <c r="C105" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" ht="18.75" customHeight="1">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="8" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>B. Pol SHV &amp; Wife</t>
         </is>
       </c>
-      <c r="C106" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" s="8" t="n">
+      <c r="C106" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" ht="18.75" customHeight="1">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="8" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>B. Ny Sophy &amp; Family</t>
         </is>
       </c>
-      <c r="C107" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" s="8" t="n">
+      <c r="C107" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" ht="18.75" customHeight="1">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>Chhoeung Lyna &amp; Honey</t>
         </is>
       </c>
-      <c r="C108" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" s="8" t="n">
+      <c r="C108" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" ht="18.75" customHeight="1">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="8" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>Chhour Theangsreng &amp; Honey</t>
         </is>
       </c>
-      <c r="C109" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" s="8" t="n">
+      <c r="C109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" ht="18.75" customHeight="1">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="8" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Teacher Sok Chanda &amp; Family (VN)</t>
         </is>
       </c>
-      <c r="C110" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" s="8" t="n">
+      <c r="C110" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="8" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" s="3" t="inlineStr">
         <is>
           <t>បង​ប្រុស យី សុធី និង ភរិយា</t>
         </is>
       </c>
-      <c r="C111" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" s="8" t="n">
+      <c r="C111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" s="3" t="inlineStr">
         <is>
           <t>ក្មួយប្រុស យី សុខ​សម្បត្តិ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C112" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" s="8" t="n">
+      <c r="C112" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" s="3" t="inlineStr">
         <is>
           <t>បងស្រី វ៉ាន់ណា​ និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C113" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" s="8" t="n">
+      <c r="C113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="8" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" s="3" t="inlineStr">
         <is>
           <t>មីង ផល</t>
         </is>
       </c>
-      <c r="C114" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" s="8" t="n">
+      <c r="C114" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="8" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" s="3" t="inlineStr">
         <is>
           <t>មីង វ៉ាន់នី និង ស្វាមី</t>
         </is>
       </c>
-      <c r="C115" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" s="8" t="n">
+      <c r="C115" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="8" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" s="3" t="inlineStr">
         <is>
           <t>បងស្រី​ ពៅ និង ស្វាមី</t>
         </is>
       </c>
-      <c r="C116" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" s="8" t="n">
+      <c r="C116" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="8" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ប្អូន ស្រីហ៊ុច និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C117" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" s="8" t="n">
+      <c r="C117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" ht="21" customHeight="1">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="8" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" s="3" t="inlineStr">
         <is>
           <t>រស្មី និងភរិយា​</t>
         </is>
       </c>
-      <c r="C118" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" s="8" t="n">
+      <c r="C118" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" ht="21" customHeight="1">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="8" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" s="3" t="inlineStr">
         <is>
           <t>អ្នកមីង យី ឆេង</t>
         </is>
       </c>
-      <c r="C119" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" s="8" t="n">
+      <c r="C119" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="8" t="n">
         <v>119</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" s="3" t="inlineStr">
         <is>
           <t>ប្អូនប្រុស ឈន ប្រសាទ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C120" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" s="8" t="n">
+      <c r="C120" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" s="3" t="inlineStr">
         <is>
           <t>លោកពូ អន សុំ និង ភរិយា​</t>
         </is>
       </c>
-      <c r="C121" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" s="8" t="n">
+      <c r="C121" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="8" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">បងស្រី ផល </t>
         </is>
       </c>
-      <c r="C122" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" s="8" t="n">
+      <c r="C122" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" ht="21" customHeight="1">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ទួន ដា</t>
         </is>
       </c>
-      <c r="C123" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" s="8" t="n">
+      <c r="C123" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" ht="21" customHeight="1">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="8" t="n">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ប្អូនស្រី​ បុប្ផា និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C124" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" s="8" t="n">
+      <c r="C124" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="8" t="n">
         <v>124</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" s="3" t="inlineStr">
         <is>
           <t>ប្អូនប្រុស ប្រសា្ន និង ភរិយា​</t>
         </is>
       </c>
-      <c r="C125" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" s="8" t="n">
+      <c r="C125" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" ht="21" customHeight="1">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="8" t="n">
         <v>125</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" s="3" t="inlineStr">
         <is>
           <t>ប្អូនស្រី សុំ នាងឌីន</t>
         </is>
       </c>
-      <c r="C126" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" s="8" t="n">
+      <c r="C126" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" ht="21" customHeight="1">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="8" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី​ ម៉េងសិម</t>
         </is>
       </c>
-      <c r="C127" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" s="8" t="n">
+      <c r="C127" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="8" t="n">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ទៀង សុវណ្ណធីតា និង ស្វាមី</t>
         </is>
       </c>
-      <c r="C128" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" s="8" t="n">
+      <c r="C128" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" ht="21" customHeight="1">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="8" t="n">
         <v>128</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី កែត សុវណ្ណា និង ស្វាមី</t>
         </is>
       </c>
-      <c r="C129" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" s="8" t="n">
+      <c r="C129" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="8" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" s="3" t="inlineStr">
         <is>
           <t>លោក គង់​ សាឡន និង​ ភរិយា​</t>
         </is>
       </c>
-      <c r="C130" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" s="8" t="n">
+      <c r="C130" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" s="3" t="inlineStr">
         <is>
           <t>កញ្ញា កែវ ណារុំ</t>
         </is>
       </c>
-      <c r="C131" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" s="8" t="n">
+      <c r="C131" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="8" t="n">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី គង់ ចាន់ធី </t>
         </is>
       </c>
-      <c r="C132" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" s="8" t="n">
+      <c r="C132" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" ht="21" customHeight="1">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" s="3" t="inlineStr">
         <is>
           <t>លោក ចាន់់ធី និង ភរិយា​</t>
         </is>
       </c>
-      <c r="C133" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" s="8" t="n">
+      <c r="C133" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="8" t="n">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី អិន សុវណ្ណារី និង ស្វាមី</t>
         </is>
       </c>
-      <c r="C134" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" s="8" t="n">
+      <c r="C134" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="8" t="n">
         <v>134</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី ហឹម​ ម៉ារីយា និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C135" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" s="8" t="n">
+      <c r="C135" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136" ht="21" customHeight="1">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="8" t="n">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី សិន មន្នី</t>
         </is>
       </c>
-      <c r="C136" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" s="8" t="n">
+      <c r="C136" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" ht="21" customHeight="1">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="8" t="n">
         <v>136</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" s="3" t="inlineStr">
         <is>
           <t>លោក មាច សេរី និង ភរិយា</t>
         </is>
       </c>
-      <c r="C137" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" s="8" t="n">
+      <c r="C137" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" ht="21" customHeight="1">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="8" t="n">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B138" s="3" t="inlineStr">
         <is>
           <t>លោក ខាត់ ដារ៉ាវិរៈ និង ភរិយា​</t>
         </is>
       </c>
-      <c r="C138" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" s="8" t="n">
+      <c r="C138" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" ht="21" customHeight="1">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="8" t="n">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" s="3" t="inlineStr">
         <is>
           <t>លោក មាស សុភក្តិ និង ភរិយា​</t>
         </is>
       </c>
-      <c r="C139" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" s="8" t="n">
+      <c r="C139" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" ht="21" customHeight="1">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="8" t="n">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ចាន់ ថន និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C140" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" s="8" t="n">
+      <c r="C140" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" ht="21" customHeight="1">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="8" t="n">
         <v>140</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី គាំ សុខុម និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C141" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" s="8" t="n">
+      <c r="C141" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" ht="21" customHeight="1">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="8" t="n">
         <v>141</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី ឃឹម សុខន និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C142" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" s="8" t="n">
+      <c r="C142" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" ht="21" customHeight="1">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="8" t="n">
         <v>142</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី ហិន សុភាព និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C143" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" s="8" t="n">
+      <c r="C143" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" ht="21" customHeight="1">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="8" t="n">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី នួន ស៊ីណា និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C144" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" s="8" t="n">
+      <c r="C144" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" ht="21" customHeight="1">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="8" t="n">
         <v>144</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ឆាយ សុភាព និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C145" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" s="8" t="n">
+      <c r="C145" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" ht="21" customHeight="1">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="8" t="n">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី តុប សុវណ្ណារី និង ស្វាមី</t>
         </is>
       </c>
-      <c r="C146" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" s="8" t="n">
+      <c r="C146" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147" ht="21" customHeight="1">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="8" t="n">
         <v>146</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ប៉ាន់ ទៀង និង ស្វាមី</t>
         </is>
       </c>
-      <c r="C147" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" s="8" t="n">
+      <c r="C147" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148" ht="21" customHeight="1">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="8" t="n">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី វិញ ផល្លា</t>
         </is>
       </c>
-      <c r="C148" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D148" s="8" t="n">
+      <c r="C148" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149" ht="21" customHeight="1">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="8" t="n">
         <v>148</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ម៉ង់ សុខារី និង ស្វាមី</t>
         </is>
       </c>
-      <c r="C149" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" s="8" t="n">
+      <c r="C149" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" ht="21" customHeight="1">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="8" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ម៉េង លាងសិម និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C150" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" s="8" t="n">
+      <c r="C150" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151" ht="21" customHeight="1">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី សាំង ធារី និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C151" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" s="8" t="n">
+      <c r="C151" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152" ht="21" customHeight="1">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="8" t="n">
         <v>151</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">បង រិន និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C152" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" s="8" t="n">
+      <c r="C152" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153" ht="21" customHeight="1">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="8" t="n">
         <v>152</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី សុខ អ៊ីម និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C153" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" s="8" t="n">
+      <c r="C153" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154" ht="21" customHeight="1">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="8" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" s="3" t="inlineStr">
         <is>
           <t>កញ្ញា ឡាយ ហ័ង</t>
         </is>
       </c>
-      <c r="C154" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" s="8" t="n">
+      <c r="C154" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155" ht="21" customHeight="1">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="8" t="n">
         <v>154</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី យូ គន្ធា និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C155" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" s="8" t="n">
+      <c r="C155" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156" ht="21" customHeight="1">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="8" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="B156" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ប្អូនស្រី ផល្លី និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C156" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" s="8" t="n">
+      <c r="C156" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157" ht="21" customHeight="1">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="8" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="2" t="inlineStr">
+      <c r="B157" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ប៉ែន ចន្ទ្រាឆវី និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C157" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" s="8" t="n">
+      <c r="C157" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158" ht="21" customHeight="1">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="8" t="n">
         <v>157</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" s="3" t="inlineStr">
         <is>
           <t>បងស្រី ដា​ និង ស្វាមី</t>
         </is>
       </c>
-      <c r="C158" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" s="8" t="n">
+      <c r="C158" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159" ht="21" customHeight="1">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="8" t="n">
         <v>158</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ចែ គាន់ និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C159" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" s="8" t="n">
+      <c r="C159" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="160" ht="21" customHeight="1">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="8" t="n">
         <v>159</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី សុដេម៉ា​ </t>
         </is>
       </c>
-      <c r="C160" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" s="8" t="n">
+      <c r="C160" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161" ht="21" customHeight="1">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="8" t="n">
         <v>160</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី សិម គឹមយៀង និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C161" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" s="8" t="n">
+      <c r="C161" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="8" t="n">
         <v>161</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី សេង យាង</t>
         </is>
       </c>
-      <c r="C162" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" s="8" t="n">
+      <c r="C162" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="8" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី យូ គឹមលី</t>
         </is>
       </c>
-      <c r="C163" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" s="8" t="n">
+      <c r="C163" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="8" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="2" t="inlineStr">
+      <c r="B164" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី សុខាវី </t>
         </is>
       </c>
-      <c r="C164" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" s="8" t="n">
+      <c r="C164" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="8" t="n">
         <v>164</v>
       </c>
-      <c r="B165" s="2" t="inlineStr">
+      <c r="B165" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ទេព ចាន់ស៊ីណារី និង ស្វាមី​</t>
         </is>
       </c>
-      <c r="C165" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" s="8" t="n">
+      <c r="C165" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166" ht="21" customHeight="1">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="8" t="n">
         <v>165</v>
       </c>
-      <c r="B166" s="2" t="inlineStr">
+      <c r="B166" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី ឡាយ​ ចាន់សៀម និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C166" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" s="8" t="n">
+      <c r="C166" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167" ht="21" customHeight="1">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="8" t="n">
         <v>166</v>
       </c>
-      <c r="B167" s="2" t="inlineStr">
+      <c r="B167" s="3" t="inlineStr">
         <is>
           <t>អូន ប្រិយ៍ និង ភរិយា​</t>
         </is>
       </c>
-      <c r="C167" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" s="8" t="n">
+      <c r="C167" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168" ht="21" customHeight="1">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="8" t="n">
         <v>167</v>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="B168" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ចែភី និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C168" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" s="8" t="n">
+      <c r="C168" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="8" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">លោកស្រី ឡូញ ចិន្តា </t>
         </is>
       </c>
-      <c r="C169" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" s="8" t="n">
+      <c r="C169" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="8" t="n">
         <v>169</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" s="3" t="inlineStr">
         <is>
           <t>លោក សុខ សុវណ្ណ</t>
         </is>
       </c>
-      <c r="C170" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" s="8" t="n">
+      <c r="C170" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="8" t="n">
         <v>170</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ចែ ញិប និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C171" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" s="8" t="n">
+      <c r="C171" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="172" ht="21" customHeight="1">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="8" t="n">
         <v>171</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">កូវ និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C172" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" s="8" t="n">
+      <c r="C172" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173" ht="21" customHeight="1">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="8" t="n">
         <v>172</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" s="3" t="inlineStr">
         <is>
           <t>បងប្រុស យី ភត្ត្រា និង ភរិយា​</t>
         </is>
       </c>
-      <c r="C173" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" s="8" t="n">
+      <c r="C173" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="8" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" s="3" t="inlineStr">
         <is>
           <t>បងប្រុស យី សុម៉េត​ និង ភរិយា​</t>
         </is>
       </c>
-      <c r="C174" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" s="8" t="n">
+      <c r="C174" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="8" t="n">
         <v>174</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">បងប្រុស យី ចំណាន </t>
         </is>
       </c>
-      <c r="C175" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" s="8" t="n">
+      <c r="C175" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="8" t="n">
         <v>175</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" s="3" t="inlineStr">
         <is>
           <t>បងស្រី យី សុវណ្ណា</t>
         </is>
       </c>
-      <c r="C176" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" s="8" t="n">
+      <c r="C176" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177" ht="21" customHeight="1">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="8" t="n">
         <v>176</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ក្មួយស្រី យី កនិកា និង ស្វាមី </t>
         </is>
       </c>
-      <c r="C177" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" s="8" t="n">
+      <c r="C177" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178" ht="21" customHeight="1">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="8" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ក្មួយប្រុស យី វិសាល និង ភរិយា </t>
         </is>
       </c>
-      <c r="C178" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" s="8" t="n">
+      <c r="C178" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179" ht="18.75" customHeight="1">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="8" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="6" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raksmey Omrin and Husband </t>
         </is>
       </c>
-      <c r="C179" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" s="8" t="n">
+      <c r="C179" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180" ht="18.75" customHeight="1">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="8" t="n">
         <v>179</v>
       </c>
-      <c r="B180" s="6" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>A. Nguyen Quang Trong</t>
         </is>
       </c>
-      <c r="C180" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" s="8" t="n">
+      <c r="C180" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181" ht="18.75" customHeight="1">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="8" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="6" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>C. Nguyen Vu Thi Thuy Linh</t>
         </is>
       </c>
-      <c r="C181" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" s="8" t="n">
+      <c r="C181" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182" ht="18.75" customHeight="1">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="8" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="6" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Ban Khemera &amp; Honey</t>
         </is>
       </c>
-      <c r="C182" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" s="8" t="n">
+      <c r="C182" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183" ht="18.75" customHeight="1">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="8" t="n">
         <v>182</v>
       </c>
-      <c r="B183" s="6" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Ms. Chou Sopheak &amp; Honey</t>
         </is>
       </c>
-      <c r="C183" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" s="8" t="n">
+      <c r="C183" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184" ht="21" customHeight="1">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="8" t="n">
         <v>183</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. សែម សាវុធ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C184" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" s="8" t="n">
+      <c r="C184" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185" ht="21" customHeight="1">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="8" t="n">
         <v>184</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ឡុង គឹមហេងនិង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C185" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" s="8" t="n">
+      <c r="C185" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186" ht="21" customHeight="1">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="8" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ប៉ាវ ជីវ៉េង​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C186" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" s="8" t="n">
+      <c r="C186" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="8" t="n">
         <v>186</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. សួន ពិស៊ី និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C187" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" s="8" t="n">
+      <c r="C187" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="8" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ដោក សុផា និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C188" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" s="8" t="n">
+      <c r="C188" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189" ht="21" customHeight="1">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="8" t="n">
         <v>188</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ជូ សារុំ</t>
         </is>
       </c>
-      <c r="C189" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" s="8" t="n">
+      <c r="C189" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190" ht="21" customHeight="1">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="8" t="n">
         <v>189</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. គី ឡេង​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C190" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" s="8" t="n">
+      <c r="C190" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191" ht="21" customHeight="1">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="B191" s="2" t="inlineStr">
+      <c r="B191" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. អ៊ុងសារុំ​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C191" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" s="8" t="n">
+      <c r="C191" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="8" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="2" t="inlineStr">
+      <c r="B192" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ឡេង​ ដាលីន​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C192" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" s="8" t="n">
+      <c r="C192" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="8" t="n">
         <v>192</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. គង់ ភីរះ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C193" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" s="8" t="n">
+      <c r="C193" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="8" t="n">
         <v>193</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. កែន សារ៉ន និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C194" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" s="8" t="n">
+      <c r="C194" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="8" t="n">
         <v>194</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. យិន ចិត្រា និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C195" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" s="8" t="n">
+      <c r="C195" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="8" t="n">
         <v>195</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ឯក.ឧ. ហួន លី </t>
         </is>
       </c>
-      <c r="C196" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" s="8" t="n">
+      <c r="C196" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="8" t="n">
         <v>196</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. មុំ រិត និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C197" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" s="8" t="n">
+      <c r="C197" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="198" ht="21" customHeight="1">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="8" t="n">
         <v>197</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ចេង សេរីវុធ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C198" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" s="8" t="n">
+      <c r="C198" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="199" ht="21" customHeight="1">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="8" t="n">
         <v>198</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. យ៉ែម សុវណ្ណ​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C199" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" s="8" t="n">
+      <c r="C199" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" s="5" t="n">
+      <c r="A200" s="8" t="n">
         <v>208</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. អ៊ុន​ សារ៉ាវុធ​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C200" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" s="8" t="n">
+      <c r="C200" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. វ៉ា មុនី​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C201" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" s="8" t="n">
+      <c r="C201" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="202" ht="19.5" customHeight="1">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="8" t="n">
         <v>201</v>
       </c>
-      <c r="B202" s="7" t="inlineStr">
+      <c r="B202" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ហួត ចាន់ដារ៉ាវុធ​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C202" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" s="8" t="n">
+      <c r="C202" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="203" ht="21" customHeight="1">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="8" t="n">
         <v>202</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. កុយ សារិន​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C203" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" s="8" t="n">
+      <c r="C203" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204" ht="21" customHeight="1">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="8" t="n">
         <v>203</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ឡុង សារុន និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C204" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D204" s="8" t="n">
+      <c r="C204" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205" ht="21" customHeight="1">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="8" t="n">
         <v>204</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. កូវ សាផាន​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C205" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D205" s="8" t="n">
+      <c r="C205" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="8" t="n">
         <v>205</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. អ៊ុន ថាវរី​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C206" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" s="8" t="n">
+      <c r="C206" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="8" t="n">
         <v>206</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. អ៊ុក សុវណ្ណារិទ្ធ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C207" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" s="8" t="n">
+      <c r="C207" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208" ht="21" customHeight="1">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="8" t="n">
         <v>207</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ហេង សត្ថាឬទិ្ធ​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C208" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" s="8" t="n">
+      <c r="C208" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209" ht="21" customHeight="1">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="8" t="n">
         <v>208</v>
       </c>
-      <c r="B209" s="2" t="inlineStr">
+      <c r="B209" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.​ អ៊ុង ថាច​</t>
         </is>
       </c>
-      <c r="C209" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" s="8" t="n">
+      <c r="C209" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="210" ht="21" customHeight="1">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="8" t="n">
         <v>209</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. រស់ ថាវ​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C210" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D210" s="8" t="n">
+      <c r="C210" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="211" ht="21" customHeight="1">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="8" t="n">
         <v>210</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" s="3" t="inlineStr">
         <is>
           <t>លោក ឃឹម សុឃឿន​ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C211" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" s="8" t="n">
+      <c r="C211" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="212" ht="21" customHeight="1">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="8" t="n">
         <v>211</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" s="3" t="inlineStr">
         <is>
           <t>លោក លី អាហ្វីរីន និង ភរិយា</t>
         </is>
       </c>
-      <c r="C212" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" s="8" t="n">
+      <c r="C212" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="8" t="n">
         <v>212</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" s="3" t="inlineStr">
         <is>
           <t>លោក ប៉ាន រតនះ​ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C213" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D213" s="8" t="n">
+      <c r="C213" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="8" t="n">
         <v>213</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" s="3" t="inlineStr">
         <is>
           <t>លោក ជា នី​ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C214" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" s="8" t="n">
+      <c r="C214" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="8" t="n">
         <v>214</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" s="3" t="inlineStr">
         <is>
           <t>លោក អ៊ុក ស៊ីមន្ថា និង ភរិយា</t>
         </is>
       </c>
-      <c r="C215" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D215" s="8" t="n">
+      <c r="C215" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="216" ht="21" customHeight="1">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="8" t="n">
         <v>215</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" s="3" t="inlineStr">
         <is>
           <t>លោក យឹម សោភ័ណ្ឌ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C216" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D216" s="8" t="n">
+      <c r="C216" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="8" t="n">
         <v>216</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" s="3" t="inlineStr">
         <is>
           <t>លោកជំទាវ ឈឿន និមល និង សា្វមី</t>
         </is>
       </c>
-      <c r="C217" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D217" s="8" t="n">
+      <c r="C217" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="8" t="n">
         <v>217</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" s="3" t="inlineStr">
         <is>
           <t>លោក សុខ សាន្ត និង ភរិយា</t>
         </is>
       </c>
-      <c r="C218" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" s="8" t="n">
+      <c r="C218" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="8" t="n">
         <v>218</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" s="3" t="inlineStr">
         <is>
           <t>លោក ប្រាក់ វុទ្ធី​ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C219" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D219" s="8" t="n">
+      <c r="C219" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="8" t="n">
         <v>219</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" s="3" t="inlineStr">
         <is>
           <t>លោក កេត រតនា និង ភរិយា</t>
         </is>
       </c>
-      <c r="C220" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" s="8" t="n">
+      <c r="C220" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="8" t="n">
         <v>220</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" s="3" t="inlineStr">
         <is>
           <t>លោក ស៊ឹម សុភាព និង ភរិយា</t>
         </is>
       </c>
-      <c r="C221" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D221" s="8" t="n">
+      <c r="C221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="222" ht="21" customHeight="1">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="8" t="n">
         <v>221</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ព្រហ្ម រចនា និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C222" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D222" s="8" t="n">
+      <c r="C222" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="223" ht="21" customHeight="1">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="8" t="n">
         <v>222</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ព្រំ ដា និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C223" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D223" s="8" t="n">
+      <c r="C223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="224" ht="21" customHeight="1">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="8" t="n">
         <v>223</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. អៀម ប៊ុនថេន​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C224" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" s="8" t="n">
+      <c r="C224" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="225" ht="21" customHeight="1">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. អ៊ុក ភិរម្យ​ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C225" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" s="8" t="n">
+      <c r="C225" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="226" ht="21" customHeight="1">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="8" t="n">
         <v>225</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ប្រាក់ សុខុម និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C226" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D226" s="8" t="n">
+      <c r="C226" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="227" ht="21" customHeight="1">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="8" t="n">
         <v>226</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ផល សុភាព និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C227" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D227" s="8" t="n">
+      <c r="C227" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="228" ht="21" customHeight="1">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="8" t="n">
         <v>227</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. អាំ ឆុន និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C228" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D228" s="8" t="n">
+      <c r="C228" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="229" ht="21" customHeight="1">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="8" t="n">
         <v>228</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. សោម ផាន្នី និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C229" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D229" s="8" t="n">
+      <c r="C229" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="230" ht="21" customHeight="1">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="8" t="n">
         <v>229</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ពៅ ស៊ីថា និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C230" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D230" s="8" t="n">
+      <c r="C230" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="231" ht="21" customHeight="1">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="8" t="n">
         <v>230</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" s="3" t="inlineStr">
         <is>
           <t>លោក សាន សុភ័ក្រ្ត និង ភរិយា</t>
         </is>
       </c>
-      <c r="C231" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D231" s="8" t="n">
+      <c r="C231" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="232" ht="21" customHeight="1">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="8" t="n">
         <v>231</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" s="3" t="inlineStr">
         <is>
           <t>លោក សៀង សុឃាន់ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C232" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D232" s="8" t="n">
+      <c r="C232" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="233" ht="21" customHeight="1">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="8" t="n">
         <v>232</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" s="3" t="inlineStr">
         <is>
           <t>លោក សួន សុផាន និង ភរិយា</t>
         </is>
       </c>
-      <c r="C233" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" s="8" t="n">
+      <c r="C233" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="8" t="n">
         <v>233</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ផុន សុភា និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C234" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D234" s="8" t="n">
+      <c r="C234" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="8" t="n">
         <v>234</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" s="3" t="inlineStr">
         <is>
           <t>លោក សាម លុច និង ភរិយា</t>
         </is>
       </c>
-      <c r="C235" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D235" s="8" t="n">
+      <c r="C235" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="8" t="n">
         <v>235</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. គឹម វណ្ណសារ៉ុម និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C236" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D236" s="8" t="n">
+      <c r="C236" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="8" t="n">
         <v>236</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. វណ្ឌី វិបុល និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C237" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D237" s="8" t="n">
+      <c r="C237" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="8" t="n">
         <v>237</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ហាស កណ្ណារ៉ា និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C238" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D238" s="8" t="n">
+      <c r="C238" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="239" ht="21" customHeight="1">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="8" t="n">
         <v>238</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" s="3" t="inlineStr">
         <is>
           <t>លោក អ៊ុំ ម៉ារ័ត្ន និង ភរិយា</t>
         </is>
       </c>
-      <c r="C239" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D239" s="8" t="n">
+      <c r="C239" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="240" ht="21" customHeight="1">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="8" t="n">
         <v>239</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" s="3" t="inlineStr">
         <is>
           <t>លោកស្រី ប៉ាល់ លក្ខិណា</t>
         </is>
       </c>
-      <c r="C240" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D240" s="8" t="n">
+      <c r="C240" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="8" t="n">
         <v>240</v>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" s="3" t="inlineStr">
         <is>
           <t>លោក នី​ ពិសិដ្ឋ</t>
         </is>
       </c>
-      <c r="C241" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D241" s="8" t="n">
+      <c r="C241" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="242" ht="21" customHeight="1">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="8" t="n">
         <v>241</v>
       </c>
-      <c r="B242" s="2" t="inlineStr">
+      <c r="B242" s="3" t="inlineStr">
         <is>
           <t>លោក ប្រាក់ ប៊ុនសុន និង ភរិយា</t>
         </is>
       </c>
-      <c r="C242" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D242" s="8" t="n">
+      <c r="C242" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="243" ht="21" customHeight="1">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="8" t="n">
         <v>242</v>
       </c>
-      <c r="B243" s="2" t="inlineStr">
+      <c r="B243" s="3" t="inlineStr">
         <is>
           <t>លោក នូ ហេង​ និង​ ភរិយា</t>
         </is>
       </c>
-      <c r="C243" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D243" s="8" t="n">
+      <c r="C243" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="244" ht="21" customHeight="1">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="8" t="n">
         <v>243</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" s="3" t="inlineStr">
         <is>
           <t>លោក គឹម ដារ៉ា និង​ ភរិយា</t>
         </is>
       </c>
-      <c r="C244" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D244" s="8" t="n">
+      <c r="C244" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="245" ht="21" customHeight="1">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="8" t="n">
         <v>244</v>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" s="3" t="inlineStr">
         <is>
           <t>លោក គង់ អេងឈាង និង ភរិយា</t>
         </is>
       </c>
-      <c r="C245" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D245" s="8" t="n">
+      <c r="C245" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="246" ht="21" customHeight="1">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="8" t="n">
         <v>245</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" s="3" t="inlineStr">
         <is>
           <t>អ្នកគ្រូ​ អ៊ុក ធារី ព្រមទាំងគ្រួសារ</t>
         </is>
       </c>
-      <c r="C246" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D246" s="8" t="n">
+      <c r="C246" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="247" ht="21" customHeight="1">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="8" t="n">
         <v>246</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" s="3" t="inlineStr">
         <is>
           <t>លោក ស៊ុន សាយ័ណ្ណ និង​ ភរិយា</t>
         </is>
       </c>
-      <c r="C247" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D247" s="8" t="n">
+      <c r="C247" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="248" ht="21" customHeight="1">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="8" t="n">
         <v>247</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" s="3" t="inlineStr">
         <is>
           <t>លោក សួន ម៉ានិត្យ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C248" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D248" s="8" t="n">
+      <c r="C248" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="249" ht="21" customHeight="1">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="8" t="n">
         <v>248</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" s="3" t="inlineStr">
         <is>
           <t>លោក ជឹម សុខល័ក្ខ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C249" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D249" s="8" t="n">
+      <c r="C249" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="250" ht="21" customHeight="1">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="8" t="n">
         <v>249</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ឡេង ចន្ថន និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C250" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D250" s="8" t="n">
+      <c r="C250" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="251" ht="21" customHeight="1">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="8" t="n">
         <v>250</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. យឹម វុទ្ធី និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C251" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D251" s="8" t="n">
+      <c r="C251" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="252" ht="21" customHeight="1">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="8" t="n">
         <v>251</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.  ខេង ឈុន និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C252" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D252" s="8" t="n">
+      <c r="C252" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="253" ht="21" customHeight="1">
-      <c r="A253" s="1" t="n">
+      <c r="A253" s="8" t="n">
         <v>252</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ. ញាណ សុផាត និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C253" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D253" s="8" t="n">
+      <c r="C253" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="254" ht="21" customHeight="1">
-      <c r="A254" s="1" t="n">
+      <c r="A254" s="8" t="n">
         <v>253</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.  ឡាំ ដារ៉ារិទ្ធ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C254" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D254" s="8" t="n">
+      <c r="C254" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="255" ht="21" customHeight="1">
-      <c r="A255" s="1" t="n">
+      <c r="A255" s="8" t="n">
         <v>254</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.​ ជឿង ឆាលី និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C255" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D255" s="8" t="n">
+      <c r="C255" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="256" ht="21" customHeight="1">
-      <c r="A256" s="1" t="n">
+      <c r="A256" s="8" t="n">
         <v>255</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.  សូ ជុំ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C256" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D256" s="8" t="n">
+      <c r="C256" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="1" t="n">
+      <c r="A257" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.  ធូ វណ្ណះ និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C257" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D257" s="8" t="n">
+      <c r="C257" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="258" ht="21" customHeight="1">
-      <c r="A258" s="1" t="n">
+      <c r="A258" s="8" t="n">
         <v>257</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.  តាក់ ប៉េង និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C258" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D258" s="8" t="n">
+      <c r="C258" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="259" ht="21" customHeight="1">
-      <c r="A259" s="1" t="n">
+      <c r="A259" s="8" t="n">
         <v>258</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.  គីវ ផល្លី និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C259" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D259" s="8" t="n">
+      <c r="C259" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="260" ht="21" customHeight="1">
-      <c r="A260" s="1" t="n">
+      <c r="A260" s="8" t="n">
         <v>259</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" s="3" t="inlineStr">
         <is>
           <t>លោក គង់ សាបាន និង ភរិយា</t>
         </is>
       </c>
-      <c r="C260" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D260" s="8" t="n">
+      <c r="C260" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="1" t="n">
+      <c r="A261" s="8" t="n">
         <v>260</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" s="3" t="inlineStr">
         <is>
           <t>លោក សាន សុភ័ក្រ និង ភរិយា</t>
         </is>
       </c>
-      <c r="C261" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D261" s="8" t="n">
+      <c r="C261" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="262" ht="21" customHeight="1">
-      <c r="A262" s="1" t="n">
+      <c r="A262" s="8" t="n">
         <v>261</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" s="3" t="inlineStr">
         <is>
           <t>លោក អ៊ីវ សុគួនពិសិដ្ឋ</t>
         </is>
       </c>
-      <c r="C262" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D262" s="8" t="n">
+      <c r="C262" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="263" ht="21" customHeight="1">
-      <c r="A263" s="1" t="n">
+      <c r="A263" s="8" t="n">
         <v>262</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" s="3" t="inlineStr">
         <is>
           <t>លោក ជិន សុគា និង ភរិយា</t>
         </is>
       </c>
-      <c r="C263" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D263" s="8" t="n">
+      <c r="C263" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="264" ht="21" customHeight="1">
-      <c r="A264" s="1" t="n">
+      <c r="A264" s="8" t="n">
         <v>263</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" s="3" t="inlineStr">
         <is>
           <t>លោក យ៉ាត សួស្តី និង ភរិយា</t>
         </is>
       </c>
-      <c r="C264" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D264" s="8" t="n">
+      <c r="C264" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="265" ht="21" customHeight="1">
-      <c r="A265" s="1" t="n">
+      <c r="A265" s="8" t="n">
         <v>264</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.  ឡឹក សុខន និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C265" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D265" s="8" t="n">
+      <c r="C265" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="266" ht="21" customHeight="1">
-      <c r="A266" s="1" t="n">
+      <c r="A266" s="8" t="n">
         <v>265</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.  ម៉េង​ សាន និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C266" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D266" s="8" t="n">
+      <c r="C266" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="267" ht="21" customHeight="1">
-      <c r="A267" s="1" t="n">
+      <c r="A267" s="8" t="n">
         <v>266</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" s="3" t="inlineStr">
         <is>
           <t>ឯក.ឧ.  ណុប ប៊ុនថុង និង លោកជំទាវ</t>
         </is>
       </c>
-      <c r="C267" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D267" s="8" t="n">
+      <c r="C267" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="268" ht="18.75" customHeight="1">
-      <c r="A268" s="1" t="n">
+      <c r="A268" s="8" t="n">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="inlineStr">
@@ -4804,15 +4794,15 @@
           <t>B. Choun Chamroeun &amp; Family</t>
         </is>
       </c>
-      <c r="C268" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D268" s="8" t="n">
+      <c r="C268" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="269" ht="18.75" customHeight="1">
-      <c r="A269" s="1" t="n">
+      <c r="A269" s="8" t="n">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="inlineStr">
@@ -4820,31 +4810,31 @@
           <t>B. Chem Romanea &amp; Family</t>
         </is>
       </c>
-      <c r="C269" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D269" s="8" t="n">
+      <c r="C269" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="270" ht="23.25" customHeight="1">
-      <c r="A270" s="1" t="n">
+      <c r="A270" s="8" t="n">
         <v>269</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" s="3" t="inlineStr">
         <is>
           <t>អ៊ុំ​ Pech Kosalmony &amp; Family</t>
         </is>
       </c>
-      <c r="C270" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D270" s="8" t="n">
+      <c r="C270" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="271" ht="18.75" customHeight="1">
-      <c r="A271" s="1" t="n">
+      <c r="A271" s="8" t="n">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="inlineStr">
@@ -4852,27 +4842,10 @@
           <t>Lay Mathew &amp; Honey</t>
         </is>
       </c>
-      <c r="C271" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D271" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" ht="18" customHeight="1">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr"/>
-      <c r="C272" t="n">
-        <v>0</v>
-      </c>
-      <c r="D272" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="C271" s="10" t="n"/>
+      <c r="D271" s="10" t="n"/>
+    </row>
+    <row r="272" ht="18" customHeight="1"/>
     <row r="273" ht="18" customHeight="1"/>
     <row r="274" ht="18" customHeight="1"/>
     <row r="275" ht="18" customHeight="1"/>
